--- a/MonitoringPattern/azuremonitoringpattern.xlsx
+++ b/MonitoringPattern/azuremonitoringpattern.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/alexyo_microsoft_com/Documents/GitRepos/WAF-Monitoring/MonitoringPattern/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{A67D2184-0832-4E2E-BA09-0EBA531F9C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{632D4895-3ED3-4365-96B6-E3324D51986C}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{26DCE5EB-C6E7-45E1-9526-6329A0D0F6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32840835-83FE-4DDC-AD7A-EE2D74E42E54}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NetworkComponents" sheetId="1" r:id="rId1"/>
     <sheet name="Service  and Resource  Health" sheetId="8" r:id="rId2"/>
     <sheet name="AzureBackup" sheetId="2" r:id="rId3"/>
-    <sheet name="Containers" sheetId="9" r:id="rId4"/>
-    <sheet name="Virtual Machines" sheetId="3" r:id="rId5"/>
+    <sheet name="Virtual Machines" sheetId="3" r:id="rId4"/>
+    <sheet name="Containers" sheetId="9" r:id="rId5"/>
     <sheet name="Endpoints" sheetId="10" r:id="rId6"/>
     <sheet name="AzureAutomation" sheetId="4" r:id="rId7"/>
     <sheet name="Storage Accounts" sheetId="5" r:id="rId8"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="159">
   <si>
     <t>Alert</t>
   </si>
@@ -261,9 +261,6 @@
     <t xml:space="preserve">E2E Latency </t>
   </si>
   <si>
-    <t>Azure Monitor - Storage Account</t>
-  </si>
-  <si>
     <t>Transactions</t>
   </si>
   <si>
@@ -288,12 +285,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>&lt; 100% for 15 mins</t>
-  </si>
-  <si>
-    <t>&gt; 90% for 15 mins</t>
-  </si>
-  <si>
     <t>Key Vault</t>
   </si>
   <si>
@@ -430,6 +421,96 @@
   </si>
   <si>
     <t>Monitor</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>LessThan</t>
+  </si>
+  <si>
+    <t>Azure Monitor - Storage Insights</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>Storage Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review current levels </t>
+  </si>
+  <si>
+    <t>Use Storage Metrics to review current level and application performance to set Threshld</t>
+  </si>
+  <si>
+    <t>Operational Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Insights</t>
+  </si>
+  <si>
+    <t>Dashboard/WorkBook</t>
+  </si>
+  <si>
+    <t>Operational DashBoard</t>
+  </si>
+  <si>
+    <t>Dashboard|Workbook</t>
+  </si>
+  <si>
+    <t>KeyVault Insights</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Average container CPU %</t>
+  </si>
+  <si>
+    <t>Average container working set memory %</t>
+  </si>
+  <si>
+    <t>Average CPU %</t>
+  </si>
+  <si>
+    <t>Average Disk Usage %</t>
+  </si>
+  <si>
+    <t>Average Persistent Volume Usage %</t>
+  </si>
+  <si>
+    <t>Average Working set memory %</t>
+  </si>
+  <si>
+    <t>Restarting container count</t>
+  </si>
+  <si>
+    <t>Failed Pod Counts</t>
+  </si>
+  <si>
+    <t>Node NotReady status</t>
+  </si>
+  <si>
+    <t>OOM Killed Containers</t>
+  </si>
+  <si>
+    <t>Pods ready %</t>
+  </si>
+  <si>
+    <t>Completed job count</t>
+  </si>
+  <si>
+    <t>AKS Cluster</t>
+  </si>
+  <si>
+    <t>WorkBookDashBoards</t>
+  </si>
+  <si>
+    <t>Older than 6 houra</t>
   </si>
 </sst>
 </file>
@@ -451,12 +532,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -488,6 +563,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF171717"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -503,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -520,31 +601,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -826,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -837,560 +950,595 @@
     <col min="1" max="1" width="25.26953125" customWidth="1"/>
     <col min="2" max="2" width="18.08984375" customWidth="1"/>
     <col min="3" max="3" width="34.81640625" customWidth="1"/>
-    <col min="5" max="5" width="51" customWidth="1"/>
-    <col min="6" max="6" width="51.81640625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="51" customWidth="1"/>
+    <col min="7" max="7" width="51.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6 16384:16384">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6 16384:16384">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6 16384:16384">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6 16384:16384">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6 16384:16384">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6 16384:16384" ht="16.5">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="XFD22" s="1"/>
-    </row>
-    <row r="23" spans="1:6 16384:16384">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6 16384:16384">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6 16384:16384">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6 16384:16384" ht="29">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="29">
       <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6 16384:16384">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6 16384:16384">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:6 16384:16384">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1416,76 +1564,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
         <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1497,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47995108-41B2-487F-B683-071E35A81069}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1511,154 +1659,157 @@
     <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" customWidth="1"/>
     <col min="6" max="7" width="16.81640625" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="9" width="26.36328125" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" customWidth="1"/>
-    <col min="11" max="11" width="34.54296875" customWidth="1"/>
+    <col min="8" max="9" width="18.54296875" customWidth="1"/>
+    <col min="10" max="10" width="26.36328125" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" customWidth="1"/>
+    <col min="12" max="12" width="34.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="C2" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E6" t="s">
         <v>117</v>
       </c>
-      <c r="F2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
         <v>118</v>
       </c>
-      <c r="E6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" t="s">
-        <v>121</v>
-      </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1668,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B4" sqref="B4:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1679,108 +1830,96 @@
     <col min="1" max="1" width="35.36328125" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="4" width="29.81640625" customWidth="1"/>
-    <col min="6" max="6" width="41.08984375" customWidth="1"/>
-    <col min="7" max="7" width="46.26953125" customWidth="1"/>
+    <col min="7" max="7" width="41.08984375" customWidth="1"/>
+    <col min="8" max="8" width="46.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
         <v>124</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16">
-      <c r="B5" s="9"/>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16">
-      <c r="B6" s="9"/>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16">
-      <c r="B7" s="9"/>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16">
-      <c r="B8" s="9"/>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16">
-      <c r="B9" s="9"/>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="16">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="16">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="16">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="16">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1789,59 +1928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8858DFDE-829C-4DB9-9D5C-E3E336FE0490}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" customWidth="1"/>
-    <col min="6" max="6" width="27.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1849,41 +1940,44 @@
     <col min="1" max="1" width="27.6328125" customWidth="1"/>
     <col min="2" max="2" width="22.7265625" customWidth="1"/>
     <col min="3" max="6" width="21.36328125" customWidth="1"/>
-    <col min="7" max="7" width="23.08984375" customWidth="1"/>
-    <col min="8" max="8" width="22.36328125" customWidth="1"/>
-    <col min="9" max="9" width="35.7265625" customWidth="1"/>
+    <col min="7" max="8" width="23.08984375" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" customWidth="1"/>
+    <col min="10" max="10" width="35.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1894,22 +1988,22 @@
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>101</v>
-      </c>
       <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1919,11 +2013,11 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1934,19 +2028,19 @@
         <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
-        <v>101</v>
-      </c>
       <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1959,14 +2053,14 @@
       <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
-        <v>101</v>
-      </c>
       <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1979,34 +2073,11 @@
       <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
-        <v>101</v>
-      </c>
       <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2015,34 +2086,302 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8858DFDE-829C-4DB9-9D5C-E3E336FE0490}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="37.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4E8F6B-CD83-4B2C-A96D-13A70029BDB2}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18.36328125" customWidth="1"/>
     <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2070,22 +2409,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2099,8 +2438,8 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>89</v>
+      <c r="E2" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>70</v>
@@ -2110,19 +2449,19 @@
       <c r="A3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2134,105 +2473,152 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
-    <col min="3" max="4" width="42.90625" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" customWidth="1"/>
-    <col min="6" max="6" width="34.6328125" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="2" max="3" width="28.1796875" customWidth="1"/>
+    <col min="4" max="4" width="42.90625" customWidth="1"/>
+    <col min="5" max="6" width="31.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="8" max="8" width="34.6328125" customWidth="1"/>
+    <col min="9" max="9" width="43.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
       <c r="B2" t="s">
         <v>74</v>
       </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
       <c r="B4" t="s">
         <v>73</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
       <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="1">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2242,10 +2628,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2253,138 +2639,153 @@
     <col min="1" max="1" width="24.7265625" customWidth="1"/>
     <col min="2" max="2" width="34.08984375" customWidth="1"/>
     <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="9" max="9" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="9"/>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="G4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F6">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" t="s">
         <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2404,15 +2805,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046A999C1836650408AA6BB88043C4158" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="28802b92e80c463010c01cbfed06c8b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="a63fc8e2-64ae-4776-8e48-ac9dc79f035e" xmlns:ns4="f0fceb61-43ef-4f95-904c-87ce673beabd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30eb1fdb3d11e86e7b3d6a4c2a7119ea" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2666,6 +3058,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4C31007-0EE4-4EC7-94AB-8CE85C4BCDCB}">
   <ds:schemaRefs>
@@ -2685,14 +3086,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8A2F890-9411-448B-97C3-AF99A6EA0E72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6FB46C9-1CD1-4647-A40F-BE2431FB77C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2712,6 +3105,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8A2F890-9411-448B-97C3-AF99A6EA0E72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>

--- a/MonitoringPattern/azuremonitoringpattern.xlsx
+++ b/MonitoringPattern/azuremonitoringpattern.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/alexyo_microsoft_com/Documents/GitRepos/WAF-Monitoring/MonitoringPattern/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{26DCE5EB-C6E7-45E1-9526-6329A0D0F6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32840835-83FE-4DDC-AD7A-EE2D74E42E54}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="8_{26DCE5EB-C6E7-45E1-9526-6329A0D0F6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{044A332D-951A-4CC0-AE25-E857DDE894FC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NetworkComponents" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="Endpoints" sheetId="10" r:id="rId6"/>
     <sheet name="AzureAutomation" sheetId="4" r:id="rId7"/>
     <sheet name="Storage Accounts" sheetId="5" r:id="rId8"/>
-    <sheet name="KeyVault" sheetId="6" r:id="rId9"/>
+    <sheet name="KeyVault" sheetId="11" r:id="rId9"/>
     <sheet name="Logic apps" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="161">
   <si>
     <t>Alert</t>
   </si>
@@ -210,21 +211,12 @@
     <t xml:space="preserve">Virtual Machine </t>
   </si>
   <si>
-    <t>use Log analytics Query</t>
-  </si>
-  <si>
     <t>Heartbeat</t>
   </si>
   <si>
     <t>no contact for 15 mins</t>
   </si>
   <si>
-    <t xml:space="preserve">use log analytics query </t>
-  </si>
-  <si>
-    <t xml:space="preserve">use query </t>
-  </si>
-  <si>
     <t>Virtual Machine (windows)</t>
   </si>
   <si>
@@ -288,9 +280,6 @@
     <t>Key Vault</t>
   </si>
   <si>
-    <t>not exportable to log analytics so metric alert only</t>
-  </si>
-  <si>
     <t xml:space="preserve">yes </t>
   </si>
   <si>
@@ -312,9 +301,6 @@
     <t xml:space="preserve">Only enabled for operastions management Logic Apps </t>
   </si>
   <si>
-    <t>Actions Faiued</t>
-  </si>
-  <si>
     <t>Only enabled for operastions management Logic Apps, metric alert used</t>
   </si>
   <si>
@@ -327,9 +313,6 @@
     <t>GreaterThan</t>
   </si>
   <si>
-    <t>Less Thanks</t>
-  </si>
-  <si>
     <t>VM Insights</t>
   </si>
   <si>
@@ -366,9 +349,6 @@
     <t>Event Status</t>
   </si>
   <si>
-    <t>Current Resource Stauts</t>
-  </si>
-  <si>
     <t>Previous Resource Status</t>
   </si>
   <si>
@@ -420,30 +400,15 @@
     <t>Public or Internal</t>
   </si>
   <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
     <t>Availability</t>
   </si>
   <si>
-    <t>LessThan</t>
-  </si>
-  <si>
     <t>Azure Monitor - Storage Insights</t>
   </si>
   <si>
-    <t>Threshold</t>
-  </si>
-  <si>
     <t>Storage Account</t>
   </si>
   <si>
-    <t xml:space="preserve">Review current levels </t>
-  </si>
-  <si>
     <t>Use Storage Metrics to review current level and application performance to set Threshld</t>
   </si>
   <si>
@@ -462,12 +427,6 @@
     <t>Dashboard|Workbook</t>
   </si>
   <si>
-    <t>KeyVault Insights</t>
-  </si>
-  <si>
-    <t>Ni</t>
-  </si>
-  <si>
     <t>Average container CPU %</t>
   </si>
   <si>
@@ -511,6 +470,54 @@
   </si>
   <si>
     <t>Older than 6 houra</t>
+  </si>
+  <si>
+    <t>Virrt</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>ResourceId</t>
+  </si>
+  <si>
+    <t>Resource Group</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default Visulisation|WorkBook </t>
+  </si>
+  <si>
+    <t>Current Resource Status</t>
+  </si>
+  <si>
+    <t>Scope Level</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Monitoring Too</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>resourceId</t>
+  </si>
+  <si>
+    <t>Actions Failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 80% over 15 mins. </t>
+  </si>
+  <si>
+    <t>&lt; 90% over 10 mins</t>
+  </si>
+  <si>
+    <t>Can only be set vie metric alet</t>
   </si>
 </sst>
 </file>
@@ -584,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -601,40 +608,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -650,14 +628,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -939,606 +913,678 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
-    <col min="3" max="3" width="34.81640625" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="51" customWidth="1"/>
-    <col min="7" max="7" width="51.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="34.81640625" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="51" customWidth="1"/>
+    <col min="9" max="9" width="51.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="F22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="29">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="29">
       <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1550,90 +1596,101 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" customWidth="1"/>
-    <col min="2" max="2" width="28.08984375" customWidth="1"/>
-    <col min="3" max="3" width="27.08984375" customWidth="1"/>
+    <col min="1" max="3" width="27.6328125" customWidth="1"/>
+    <col min="4" max="5" width="28.08984375" customWidth="1"/>
+    <col min="6" max="6" width="27.08984375" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
         <v>87</v>
       </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1647,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47995108-41B2-487F-B683-071E35A81069}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1656,8 +1713,7 @@
     <col min="1" max="1" width="28.6328125" customWidth="1"/>
     <col min="2" max="2" width="43.453125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="4" max="5" width="22.08984375" customWidth="1"/>
     <col min="6" max="7" width="16.81640625" customWidth="1"/>
     <col min="8" max="9" width="18.54296875" customWidth="1"/>
     <col min="10" max="10" width="26.36328125" customWidth="1"/>
@@ -1670,34 +1726,34 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>2</v>
@@ -1705,111 +1761,111 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +1878,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1845,16 +1901,16 @@
         <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2</v>
@@ -1865,22 +1921,22 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1888,13 +1944,13 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16">
@@ -1929,155 +1985,145 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
-    <col min="3" max="6" width="21.36328125" customWidth="1"/>
-    <col min="7" max="8" width="23.08984375" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" customWidth="1"/>
-    <col min="10" max="10" width="35.7265625" customWidth="1"/>
+    <col min="1" max="3" width="27.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" customWidth="1"/>
+    <col min="5" max="5" width="33.90625" customWidth="1"/>
+    <col min="6" max="7" width="23.08984375" customWidth="1"/>
+    <col min="8" max="8" width="22.36328125" customWidth="1"/>
+    <col min="9" max="9" width="35.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>57</v>
       </c>
       <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
       <c r="E4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" t="s">
-        <v>62</v>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2088,261 +2134,296 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8858DFDE-829C-4DB9-9D5C-E3E336FE0490}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="37.26953125" customWidth="1"/>
+    <col min="1" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="8" max="8" width="59.453125" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2">
         <v>95</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" t="s">
         <v>144</v>
       </c>
-      <c r="C2">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3">
-        <v>95</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12">
-        <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" t="s">
-        <v>82</v>
+      <c r="I13" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2352,36 +2433,42 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4E8F6B-CD83-4B2C-A96D-13A70029BDB2}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="1" max="1" width="33.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>137</v>
-      </c>
       <c r="F1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2430,24 +2517,24 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -2459,7 +2546,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -2476,15 +2563,14 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="3" width="28.1796875" customWidth="1"/>
-    <col min="4" max="4" width="42.90625" customWidth="1"/>
-    <col min="5" max="6" width="31.81640625" customWidth="1"/>
+    <col min="1" max="3" width="20.6328125" customWidth="1"/>
+    <col min="4" max="5" width="28.1796875" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" customWidth="1"/>
     <col min="7" max="7" width="17.81640625" customWidth="1"/>
     <col min="8" max="8" width="34.6328125" customWidth="1"/>
     <col min="9" max="9" width="43.453125" customWidth="1"/>
@@ -2495,25 +2581,25 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -2521,36 +2607,30 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
         <v>124</v>
-      </c>
-      <c r="H2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -2559,15 +2639,15 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -2576,15 +2656,15 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -2593,21 +2673,15 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="1">
-        <v>90</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2616,7 +2690,7 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -2627,170 +2701,114 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55536BF3-7286-4EBF-BBD7-0015C87F4B42}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="9" max="9" width="19.36328125" customWidth="1"/>
+    <col min="1" max="3" width="26.1796875" customWidth="1"/>
+    <col min="4" max="4" width="46.08984375" customWidth="1"/>
+    <col min="5" max="5" width="26.90625" customWidth="1"/>
+    <col min="7" max="7" width="25.7265625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="G2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="9"/>
-      <c r="G3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="G4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
+      <c r="E5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6">
-        <v>90</v>
-      </c>
-      <c r="D6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
       <c r="I6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
